--- a/biology/Botanique/Ken_Hill_(botaniste)/Ken_Hill_(botaniste).xlsx
+++ b/biology/Botanique/Ken_Hill_(botaniste)/Ken_Hill_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenneth D. Hill (Armidale, 6 août 1948 – Sydney, 4 août 2010) est un botaniste australien notable pour son travail sur les eucalyptus, la systématique, l'évolution et la  conservation du genre Cycas, ainsi qu'en botanique informatique.
-Il est né à Armidale en Nouvelle-Galles du Sud. Il a travaillé avec l'herbier national de Nouvelle-Galles du Sud (en) de 1983 à sa retraite en 2004. Il a aussi travaillé pour les Jardins botaniques royaux de Sydney[1]. En 1997-1998, il a été le correspondant australien des Jardins botaniques royaux de Kew[2].
+Il est né à Armidale en Nouvelle-Galles du Sud. Il a travaillé avec l'herbier national de Nouvelle-Galles du Sud (en) de 1983 à sa retraite en 2004. Il a aussi travaillé pour les Jardins botaniques royaux de Sydney. En 1997-1998, il a été le correspondant australien des Jardins botaniques royaux de Kew.
 </t>
         </is>
       </c>
